--- a/function/error_datalist.xlsx
+++ b/function/error_datalist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fd7754ede19a65d/Documents/01. 研究プロジェクト/RID004_◇ECTと認知機能の病態解析/experiments/RID004/function/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D066CA252ABDACC1048AE4197E30672EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73438565-210C-422D-87B3-AD6CFDB46F82}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4D066CA252ABDACC1048AE4197E30672EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5A401B0-813B-4A9C-BE5D-52764DD46B3F}"/>
   <bookViews>
-    <workbookView xWindow="-6480" yWindow="-20988" windowWidth="32064" windowHeight="17748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="2910" windowWidth="25200" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="780">
   <si>
     <t>pre_AAHead_Scout_20200413100844_1.json</t>
   </si>
@@ -1714,9 +1714,6 @@
   </si>
   <si>
     <t>pre_SEField1_AP_20200929101420_8.json</t>
-  </si>
-  <si>
-    <t>pre_SEField1_AP_20200929101420_8.nii.gz</t>
   </si>
   <si>
     <t>pre_SEField1_PA_20200929101420_11.json</t>
@@ -2317,9 +2314,6 @@
     <t>follow_SEField1_AP_20210512123610_8.json</t>
   </si>
   <si>
-    <t>follow_SEField1_AP_20210512123610_8.nii.gz</t>
-  </si>
-  <si>
     <t>follow_SEField1_PA_20210512123610_11.json</t>
   </si>
   <si>
@@ -2368,33 +2362,41 @@
     <t>follow_t1_fl3d_tra_melanin_20210512123610_14.nii.gz</t>
   </si>
   <si>
-    <t>NE0012_pre→FM複数回取っている→Slicerでチェックする</t>
+    <t>NE0024→Scout撮りすぎ</t>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NE0012_pre→FM複数回取っている→チェック後どちらでもOK→2回目</t>
     <rPh sb="13" eb="16">
       <t>フクスウカイ</t>
     </rPh>
     <rPh sb="16" eb="17">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NE0012_follow→FM複数回取っている→Slicerでチェックする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NE0024→Scout撮りすぎ</t>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
+    <rPh sb="26" eb="27">
+      <t>ゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NE0006_pre→2回撮像→SlicerでQC</t>
-    <rPh sb="12" eb="13">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サツゾウ</t>
+    <t>NE0012_follow→FM・T1・T2複数回取っている→チェック後どちらでもOK→2回目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20200929101420_8.nii.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follow_SEField1_AP_20210512123610_8.nii.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NE0006_pre→Scout多い</t>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2419,7 +2421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2429,12 +2431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,10 +2447,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2739,10 +2734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2751,35 +2746,35 @@
     <col min="3" max="3" width="52.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>777</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2802,10 +2797,10 @@
         <v>490</v>
       </c>
       <c r="G2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2828,10 +2823,10 @@
         <v>491</v>
       </c>
       <c r="G3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2854,10 +2849,10 @@
         <v>492</v>
       </c>
       <c r="G4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2880,10 +2875,10 @@
         <v>493</v>
       </c>
       <c r="G5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2906,10 +2901,10 @@
         <v>494</v>
       </c>
       <c r="G6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2932,10 +2927,10 @@
         <v>495</v>
       </c>
       <c r="G7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2958,10 +2953,10 @@
         <v>496</v>
       </c>
       <c r="G8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2984,10 +2979,10 @@
         <v>497</v>
       </c>
       <c r="G9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3010,10 +3005,10 @@
         <v>498</v>
       </c>
       <c r="G10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3036,10 +3031,10 @@
         <v>499</v>
       </c>
       <c r="G11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3062,10 +3057,10 @@
         <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3088,10 +3083,10 @@
         <v>501</v>
       </c>
       <c r="G13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3114,10 +3109,10 @@
         <v>502</v>
       </c>
       <c r="G14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3140,10 +3135,10 @@
         <v>503</v>
       </c>
       <c r="G15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3166,10 +3161,10 @@
         <v>504</v>
       </c>
       <c r="G16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3192,10 +3187,10 @@
         <v>505</v>
       </c>
       <c r="G17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3218,10 +3213,10 @@
         <v>506</v>
       </c>
       <c r="G18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3244,10 +3239,10 @@
         <v>507</v>
       </c>
       <c r="G19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3270,10 +3265,10 @@
         <v>508</v>
       </c>
       <c r="G20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3296,10 +3291,10 @@
         <v>509</v>
       </c>
       <c r="G21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3322,10 +3317,10 @@
         <v>510</v>
       </c>
       <c r="G22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3348,10 +3343,10 @@
         <v>511</v>
       </c>
       <c r="G23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3374,10 +3369,10 @@
         <v>512</v>
       </c>
       <c r="G24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3400,10 +3395,10 @@
         <v>513</v>
       </c>
       <c r="G25" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3426,10 +3421,10 @@
         <v>514</v>
       </c>
       <c r="G26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3452,10 +3447,10 @@
         <v>515</v>
       </c>
       <c r="G27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3478,10 +3473,10 @@
         <v>516</v>
       </c>
       <c r="G28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3504,10 +3499,10 @@
         <v>517</v>
       </c>
       <c r="G29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3530,10 +3525,10 @@
         <v>518</v>
       </c>
       <c r="G30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3556,10 +3551,10 @@
         <v>519</v>
       </c>
       <c r="G31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3582,10 +3577,10 @@
         <v>520</v>
       </c>
       <c r="G32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3608,10 +3603,10 @@
         <v>521</v>
       </c>
       <c r="G33" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3634,10 +3629,10 @@
         <v>522</v>
       </c>
       <c r="G34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3660,10 +3655,10 @@
         <v>523</v>
       </c>
       <c r="G35" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3686,10 +3681,10 @@
         <v>524</v>
       </c>
       <c r="G36" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3712,10 +3707,10 @@
         <v>525</v>
       </c>
       <c r="G37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3738,10 +3733,10 @@
         <v>526</v>
       </c>
       <c r="G38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3764,10 +3759,10 @@
         <v>527</v>
       </c>
       <c r="G39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3790,10 +3785,10 @@
         <v>528</v>
       </c>
       <c r="G40" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H40" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3816,10 +3811,10 @@
         <v>529</v>
       </c>
       <c r="G41" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3842,10 +3837,10 @@
         <v>530</v>
       </c>
       <c r="G42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3868,10 +3863,10 @@
         <v>531</v>
       </c>
       <c r="G43" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3894,10 +3889,10 @@
         <v>532</v>
       </c>
       <c r="G44" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3920,10 +3915,10 @@
         <v>533</v>
       </c>
       <c r="G45" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3946,10 +3941,10 @@
         <v>534</v>
       </c>
       <c r="G46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3972,10 +3967,10 @@
         <v>535</v>
       </c>
       <c r="G47" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H47" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3998,10 +3993,10 @@
         <v>536</v>
       </c>
       <c r="G48" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H48" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4024,10 +4019,10 @@
         <v>537</v>
       </c>
       <c r="G49" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H49" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4050,10 +4045,10 @@
         <v>538</v>
       </c>
       <c r="G50" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4076,10 +4071,10 @@
         <v>539</v>
       </c>
       <c r="G51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H51" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4102,10 +4097,10 @@
         <v>540</v>
       </c>
       <c r="G52" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4128,10 +4123,10 @@
         <v>541</v>
       </c>
       <c r="G53" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4154,10 +4149,10 @@
         <v>542</v>
       </c>
       <c r="G54" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4180,10 +4175,10 @@
         <v>543</v>
       </c>
       <c r="G55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H55" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4206,10 +4201,10 @@
         <v>544</v>
       </c>
       <c r="G56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H56" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4232,10 +4227,10 @@
         <v>545</v>
       </c>
       <c r="G57" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H57" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4258,10 +4253,10 @@
         <v>546</v>
       </c>
       <c r="G58" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H58" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4284,10 +4279,10 @@
         <v>547</v>
       </c>
       <c r="G59" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H59" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4310,10 +4305,10 @@
         <v>548</v>
       </c>
       <c r="G60" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H60" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4336,10 +4331,10 @@
         <v>549</v>
       </c>
       <c r="G61" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H61" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4362,10 +4357,10 @@
         <v>550</v>
       </c>
       <c r="G62" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H62" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4388,10 +4383,10 @@
         <v>551</v>
       </c>
       <c r="G63" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H63" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4414,10 +4409,10 @@
         <v>552</v>
       </c>
       <c r="G64" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4440,10 +4435,10 @@
         <v>553</v>
       </c>
       <c r="G65" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H65" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4466,10 +4461,10 @@
         <v>554</v>
       </c>
       <c r="G66" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H66" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4492,10 +4487,10 @@
         <v>555</v>
       </c>
       <c r="G67" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H67" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4518,10 +4513,10 @@
         <v>556</v>
       </c>
       <c r="G68" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H68" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4544,10 +4539,10 @@
         <v>557</v>
       </c>
       <c r="G69" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H69" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4570,10 +4565,10 @@
         <v>558</v>
       </c>
       <c r="G70" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H70" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4596,10 +4591,10 @@
         <v>559</v>
       </c>
       <c r="G71" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H71" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4622,10 +4617,10 @@
         <v>560</v>
       </c>
       <c r="G72" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H72" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4648,10 +4643,10 @@
         <v>561</v>
       </c>
       <c r="G73" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H73" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4674,10 +4669,10 @@
         <v>562</v>
       </c>
       <c r="G74" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H74" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4697,13 +4692,13 @@
         <v>443</v>
       </c>
       <c r="F75" t="s">
-        <v>563</v>
+        <v>777</v>
       </c>
       <c r="G75" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H75" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4723,13 +4718,13 @@
         <v>444</v>
       </c>
       <c r="F76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G76" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4749,13 +4744,13 @@
         <v>445</v>
       </c>
       <c r="F77" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G77" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H77" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4775,13 +4770,13 @@
         <v>446</v>
       </c>
       <c r="F78" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G78" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H78" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4801,13 +4796,13 @@
         <v>447</v>
       </c>
       <c r="F79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G79" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H79" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4827,13 +4822,13 @@
         <v>448</v>
       </c>
       <c r="F80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G80" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H80" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4853,13 +4848,13 @@
         <v>449</v>
       </c>
       <c r="F81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G81" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H81" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4879,13 +4874,13 @@
         <v>450</v>
       </c>
       <c r="F82" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G82" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H82" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4905,13 +4900,13 @@
         <v>451</v>
       </c>
       <c r="F83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G83" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H83" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4931,13 +4926,13 @@
         <v>452</v>
       </c>
       <c r="F84" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G84" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H84" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4957,13 +4952,13 @@
         <v>453</v>
       </c>
       <c r="F85" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G85" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H85" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4983,13 +4978,13 @@
         <v>454</v>
       </c>
       <c r="F86" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G86" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H86" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5009,13 +5004,13 @@
         <v>455</v>
       </c>
       <c r="F87" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G87" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5035,10 +5030,10 @@
         <v>456</v>
       </c>
       <c r="G88" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H88" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5058,10 +5053,10 @@
         <v>457</v>
       </c>
       <c r="G89" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H89" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5081,10 +5076,10 @@
         <v>458</v>
       </c>
       <c r="G90" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H90" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5104,10 +5099,10 @@
         <v>459</v>
       </c>
       <c r="G91" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H91" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5127,7 +5122,7 @@
         <v>460</v>
       </c>
       <c r="H92" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5147,7 +5142,7 @@
         <v>461</v>
       </c>
       <c r="H93" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5167,7 +5162,7 @@
         <v>462</v>
       </c>
       <c r="H94" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5187,7 +5182,7 @@
         <v>463</v>
       </c>
       <c r="H95" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5207,7 +5202,7 @@
         <v>464</v>
       </c>
       <c r="H96" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5227,7 +5222,7 @@
         <v>465</v>
       </c>
       <c r="H97" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5247,7 +5242,7 @@
         <v>466</v>
       </c>
       <c r="H98" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5267,7 +5262,7 @@
         <v>467</v>
       </c>
       <c r="H99" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5287,7 +5282,7 @@
         <v>468</v>
       </c>
       <c r="H100" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5307,7 +5302,7 @@
         <v>469</v>
       </c>
       <c r="H101" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5327,7 +5322,7 @@
         <v>470</v>
       </c>
       <c r="H102" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5347,7 +5342,7 @@
         <v>471</v>
       </c>
       <c r="H103" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5367,7 +5362,7 @@
         <v>472</v>
       </c>
       <c r="H104" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5387,7 +5382,7 @@
         <v>473</v>
       </c>
       <c r="H105" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5407,7 +5402,7 @@
         <v>474</v>
       </c>
       <c r="H106" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5427,16 +5422,13 @@
         <v>475</v>
       </c>
       <c r="H107" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>262</v>
-      </c>
       <c r="C108" t="s">
         <v>476</v>
       </c>
@@ -5451,9 +5443,6 @@
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>263</v>
-      </c>
       <c r="C109" t="s">
         <v>477</v>
       </c>
@@ -5468,9 +5457,6 @@
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>264</v>
-      </c>
       <c r="C110" t="s">
         <v>478</v>
       </c>
@@ -5482,9 +5468,6 @@
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>265</v>
-      </c>
       <c r="C111" t="s">
         <v>479</v>
       </c>
@@ -5496,9 +5479,6 @@
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>266</v>
-      </c>
       <c r="C112" t="s">
         <v>480</v>
       </c>
@@ -5510,9 +5490,6 @@
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>267</v>
-      </c>
       <c r="C113" t="s">
         <v>481</v>
       </c>
@@ -5524,9 +5501,6 @@
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>268</v>
-      </c>
       <c r="C114" t="s">
         <v>482</v>
       </c>
@@ -5538,9 +5512,6 @@
       <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
-        <v>269</v>
-      </c>
       <c r="C115" t="s">
         <v>483</v>
       </c>
@@ -5552,9 +5523,6 @@
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>270</v>
-      </c>
       <c r="C116" t="s">
         <v>484</v>
       </c>
@@ -5566,9 +5534,6 @@
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>271</v>
-      </c>
       <c r="C117" t="s">
         <v>485</v>
       </c>
@@ -5580,9 +5545,6 @@
       <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
-        <v>272</v>
-      </c>
       <c r="C118" t="s">
         <v>486</v>
       </c>
@@ -5594,9 +5556,6 @@
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>273</v>
-      </c>
       <c r="C119" t="s">
         <v>487</v>
       </c>
@@ -5608,9 +5567,6 @@
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>274</v>
-      </c>
       <c r="C120" t="s">
         <v>488</v>
       </c>
@@ -5622,9 +5578,6 @@
       <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>275</v>
-      </c>
       <c r="C121" t="s">
         <v>489</v>
       </c>
@@ -5636,578 +5589,180 @@
       <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="B158" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="B159" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="B160" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/function/error_datalist.xlsx
+++ b/function/error_datalist.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fd7754ede19a65d/Documents/01. 研究プロジェクト/RID004_◇ECTと認知機能の病態解析/experiments/RID004/function/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4D066CA252ABDACC1048AE4197E30672EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5A401B0-813B-4A9C-BE5D-52764DD46B3F}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_AD4D066CA252ABDACC1048AE4197E30672EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAE59E9C-413F-4398-B327-827A24D478F5}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="2910" windowWidth="25200" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4236" yWindow="-24780" windowWidth="22920" windowHeight="12876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="230906" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1502">
   <si>
     <t>pre_AAHead_Scout_20200413100844_1.json</t>
   </si>
@@ -2398,6 +2399,2231 @@
     <rPh sb="16" eb="17">
       <t>オオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_1.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_1.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_2_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_2_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_2_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_2_i00004.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_2_i00004.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_3_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_3_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_3_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_4_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_4_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_4_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20230428095322_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AC-PC_setup_20230428095322_5.json</t>
+  </si>
+  <si>
+    <t>pre_AC-PC_setup_20230428095322_5.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20230428095322_7.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20230428095322_7.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20230428095322_8.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20230428095322_8.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_PA_20230428095322_10.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_PA_20230428095322_10.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_PA_20230428095322_11.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_PA_20230428095322_11.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20230428095322_28.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20230428095322_28.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20230428095322_29.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20230428095322_29.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_PA_20230428095322_31.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_PA_20230428095322_31.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_PA_20230428095322_32.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_PA_20230428095322_32.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_15.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_15.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_16.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_16.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_16.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_16.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_17.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_17.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_17.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_17.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_18.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_18.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_19.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20230428095322_19.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_20.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_20.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_21.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_21.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_21.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_21.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_22.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_22.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_22.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_22.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_23.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_23.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_24.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20230428095322_24.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20230428095322_6.json</t>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20230428095322_6.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField1_PA_20230428095322_9.json</t>
+  </si>
+  <si>
+    <t>pre_SEField1_PA_20230428095322_9.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField2_AP_20230428095322_27.json</t>
+  </si>
+  <si>
+    <t>pre_SEField2_AP_20230428095322_27.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField2_PA_20230428095322_30.json</t>
+  </si>
+  <si>
+    <t>pre_SEField2_PA_20230428095322_30.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_T1_MPR_20230428095322_12.json</t>
+  </si>
+  <si>
+    <t>pre_T1_MPR_20230428095322_12.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_T1_MPR_20230428095322_26.json</t>
+  </si>
+  <si>
+    <t>pre_T2_SPC_20230428095322_13.json</t>
+  </si>
+  <si>
+    <t>pre_T2_SPC_20230428095322_25.json</t>
+  </si>
+  <si>
+    <t>pre_t1_fl3d_tra_melanin_20230428095322_14.json</t>
+  </si>
+  <si>
+    <t>pre_t1_fl3d_tra_melanin_20230428095322_14.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_1.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_1.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_2_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_2_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_2_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_2_i00004.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_2_i00004.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_3_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_3_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_3_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_4_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_4_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_4_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220818123825_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AC-PC_setup_20220818123825_5.json</t>
+  </si>
+  <si>
+    <t>pre_AC-PC_setup_20220818123825_5.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220818123825_10.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220818123825_10.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220818123825_11.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220818123825_11.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220818123825_7.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220818123825_7.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220818123825_8.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220818123825_8.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_PA_20220818123825_13.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_PA_20220818123825_13.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_PA_20220818123825_14.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_PA_20220818123825_14.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20220818123825_29.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20220818123825_29.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20220818123825_30.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20220818123825_30.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_PA_20220818123825_32.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_PA_20220818123825_32.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_PA_20220818123825_33.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_PA_20220818123825_33.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_18.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_18.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_19.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_19.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_19.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_19.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_20.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_20.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_20.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_20.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_21.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_21.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_22.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220818123825_22.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_23.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_23.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_24.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_24.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_24.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_24.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_25.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_25.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_25.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_25.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_26.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_26.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_27.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220818123825_27.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20220818123825_6.json</t>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20220818123825_6.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20220818123825_9.json</t>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20220818123825_9.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField1_PA_20220818123825_12.json</t>
+  </si>
+  <si>
+    <t>pre_SEField1_PA_20220818123825_12.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField2_AP_20220818123825_28.json</t>
+  </si>
+  <si>
+    <t>pre_SEField2_AP_20220818123825_28.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField2_PA_20220818123825_31.json</t>
+  </si>
+  <si>
+    <t>pre_SEField2_PA_20220818123825_31.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_T1_MPR_20220818123825_15.json</t>
+  </si>
+  <si>
+    <t>pre_T1_MPR_20220818123825_15.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_T2_SPC_20220818123825_16.json</t>
+  </si>
+  <si>
+    <t>pre_T2_SPC_20220818123825_16.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_t1_fl3d_tra_melanin_20220818123825_17.json</t>
+  </si>
+  <si>
+    <t>pre_t1_fl3d_tra_melanin_20220818123825_17.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_1.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_1.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_2_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_2_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_2_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_2_i00004.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_2_i00004.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_3_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_3_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_3_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_4_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_4_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_4_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220930131025_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20220930131025_5.json</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20220930131025_5.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20220930131025_6.json</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20220930131025_6.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220930131025_8.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220930131025_8.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220930131025_9.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220930131025_9.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20220930131025_11.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20220930131025_11.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20220930131025_12.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20220930131025_12.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220930131025_27.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220930131025_27.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220930131025_28.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220930131025_28.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20220930131025_30.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20220930131025_30.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20220930131025_31.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20220930131025_31.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_16.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_16.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_17.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_17.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_17.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_17.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_18.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_18.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_18.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_18.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_19.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_19.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_20.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220930131025_20.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_21.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_21.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_22.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_22.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_22.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_22.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_23.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_23.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_23.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_23.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_24.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_24.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_25.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220930131025_25.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20220930131025_7.json</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20220930131025_7.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField1_PA_20220930131025_10.json</t>
+  </si>
+  <si>
+    <t>post_SEField1_PA_20220930131025_10.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField2_AP_20220930131025_26.json</t>
+  </si>
+  <si>
+    <t>post_SEField2_AP_20220930131025_26.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField2_PA_20220930131025_29.json</t>
+  </si>
+  <si>
+    <t>post_SEField2_PA_20220930131025_29.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20220930131025_13.json</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20220930131025_13.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20220930131025_14.json</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20220930131025_14.nii.gz</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20220930131025_15.json</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20220930131025_15.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_1.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_1.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_2_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_2_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_2_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_2_i00004.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_3_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_3_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_3_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_4_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_4_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_4_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20221226104336_5.json</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20221226104336_5.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20221226104336_7.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20221226104336_7.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20221226104336_8.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20221226104336_8.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20221226104336_10.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20221226104336_10.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20221226104336_11.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20221226104336_11.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_15.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_15.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_16.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_16.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_16.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_16.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_17.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_17.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_17.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_17.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_18.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_18.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_19.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20221226104336_19.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20221226104336_20.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20221226104336_20.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20221226104336_21.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20221226104336_21.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20221226104336_21.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20221226104336_21.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20221226104336_6.json</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20221226104336_6.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField1_PA_20221226104336_9.json</t>
+  </si>
+  <si>
+    <t>post_SEField1_PA_20221226104336_9.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20221226104336_12.json</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20221226104336_12.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20221226104336_13.json</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20221226104336_13.nii.gz</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20221226104336_14.json</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20221226104336_14.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_1.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_1.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_2_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_2_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_2_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_2_i00004.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_2_i00004.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_3_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_3_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_3_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_4_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_4_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_4_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20210726104143_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20210726104143_5.json</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20210726104143_5.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20210726104143_7.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20210726104143_7.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20210726104143_8.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20210726104143_8.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20210726104143_10.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20210726104143_10.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20210726104143_11.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_PA_20210726104143_11.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20210726104143_26.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20210726104143_26.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20210726104143_27.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20210726104143_27.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20210726104143_29.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20210726104143_29.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20210726104143_30.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20210726104143_30.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST3_AP_20210726104143_32.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST3_AP_20210726104143_32.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST3_AP_20210726104143_33.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST3_AP_20210726104143_33.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST3_PA_20210726104143_35.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST3_PA_20210726104143_35.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST3_PA_20210726104143_36.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST3_PA_20210726104143_36.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_15.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_15.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_16.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_16.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_16.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_16.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_17.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_17.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_17.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_17.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_18.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_18.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_19.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20210726104143_19.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_20.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_20.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_21.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_21.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_21.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_21.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_22.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_22.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_22.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_22.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_23.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_23.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_24.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20210726104143_24.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20210726104143_6.json</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20210726104143_6.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField1_PA_20210726104143_9.json</t>
+  </si>
+  <si>
+    <t>post_SEField1_PA_20210726104143_9.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField2_AP_20210726104143_25.json</t>
+  </si>
+  <si>
+    <t>post_SEField2_AP_20210726104143_25.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField2_PA_20210726104143_28.json</t>
+  </si>
+  <si>
+    <t>post_SEField2_PA_20210726104143_28.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField3_AP_20210726104143_31.json</t>
+  </si>
+  <si>
+    <t>post_SEField3_AP_20210726104143_31.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField3_PA_20210726104143_34.json</t>
+  </si>
+  <si>
+    <t>post_SEField3_PA_20210726104143_34.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20210726104143_13.json</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20210726104143_13.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20210726104143_14.json</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20210726104143_14.nii.gz</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20210726104143_12.json</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20210726104143_12.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_1.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_1.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_2_i00001.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_2_i00002.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_2_i00003.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_2_i00004.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_2_i00004.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_3_i00001.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_3_i00002.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_3_i00003.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_4_i00001.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_4_i00002.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_4_i00003.json</t>
+  </si>
+  <si>
+    <t>follow_AAHead_Scout_20221219103441_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_AC-PC_setup_20221219103441_5.json</t>
+  </si>
+  <si>
+    <t>follow_AC-PC_setup_20221219103441_5.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST1_AP_20221219103441_7.json</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST1_AP_20221219103441_7.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST1_AP_20221219103441_8.json</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST1_AP_20221219103441_8.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST1_PA_20221219103441_10.json</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST1_PA_20221219103441_10.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST1_PA_20221219103441_11.json</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST1_PA_20221219103441_11.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST2_AP_20221219103441_26.json</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST2_AP_20221219103441_26.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST2_AP_20221219103441_27.json</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST2_AP_20221219103441_27.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST2_PA_20221219103441_29.json</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST2_PA_20221219103441_29.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST2_PA_20221219103441_30.json</t>
+  </si>
+  <si>
+    <t>follow_BOLD_REST2_PA_20221219103441_30.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_15.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_15.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_16.bval</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_16.bvec</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_16.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_16.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_17.bval</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_17.bvec</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_17.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_17.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_18.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_18.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_19.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_AP_20221219103441_19.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_20.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_20.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_21.bval</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_21.bvec</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_21.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_21.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_22.bval</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_22.bvec</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_22.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_22.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_23.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_23.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_24.json</t>
+  </si>
+  <si>
+    <t>follow_DWI_PA_20221219103441_24.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_SEField1_AP_20221219103441_6.json</t>
+  </si>
+  <si>
+    <t>follow_SEField1_AP_20221219103441_6.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_SEField1_PA_20221219103441_9.json</t>
+  </si>
+  <si>
+    <t>follow_SEField1_PA_20221219103441_9.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_SEField2_AP_20221219103441_25.json</t>
+  </si>
+  <si>
+    <t>follow_SEField2_AP_20221219103441_25.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_SEField2_PA_20221219103441_28.json</t>
+  </si>
+  <si>
+    <t>follow_SEField2_PA_20221219103441_28.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_T1_MPR_20221219103441_12.json</t>
+  </si>
+  <si>
+    <t>follow_T1_MPR_20221219103441_12.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_T2_SPC_20221219103441_13.json</t>
+  </si>
+  <si>
+    <t>follow_T2_SPC_20221219103441_13_Eq_1.nii.gz</t>
+  </si>
+  <si>
+    <t>follow_t1_fl3d_tra_melanin_20221219103441_14.json</t>
+  </si>
+  <si>
+    <t>follow_t1_fl3d_tra_melanin_20221219103441_14.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_1.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_1.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_2_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_2_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_2_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_2_i00004.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_2_i00004.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_3_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_3_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_3_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_4_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_4_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_4_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220912103822_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20220912103822_5.json</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20220912103822_5.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220912103822_7.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220912103822_7.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220912103822_8.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220912103822_8.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220912103822_26.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220912103822_26.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220912103822_27.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220912103822_27.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20220912103822_29.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20220912103822_29.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20220912103822_30.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_PA_20220912103822_30.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_15.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_15.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_16.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_16.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_16.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_16.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_17.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_17.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_17.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_17.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_18.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_18.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_19.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220912103822_19.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_20.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_20.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_21.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_21.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_21.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_21.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_22.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_22.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_22.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_22.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_23.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_23.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_24.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220912103822_24.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20220912103822_6.json</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20220912103822_6.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField2_AP_20220912103822_25.json</t>
+  </si>
+  <si>
+    <t>post_SEField2_AP_20220912103822_25.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField2_PA_20220912103822_28.json</t>
+  </si>
+  <si>
+    <t>post_SEField2_PA_20220912103822_28.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20220912103822_12.json</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20220912103822_12.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20220912103822_13.json</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20220912103822_13.nii.gz</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20220912103822_14.json</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20220912103822_14.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_1.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_1.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_2_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_2_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_2_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_2_i00004.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_2_i00004.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_3_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_3_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_3_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_4_i00001.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_4_i00002.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_4_i00003.json</t>
+  </si>
+  <si>
+    <t>pre_AAHead_Scout_20220509104047_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_AC-PC_setup_20220509104047_5.json</t>
+  </si>
+  <si>
+    <t>pre_AC-PC_setup_20220509104047_5.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220509104047_7.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220509104047_7.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220509104047_8.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST1_AP_20220509104047_8.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20220509104047_29.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20220509104047_29.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20220509104047_30.json</t>
+  </si>
+  <si>
+    <t>pre_BOLD_REST2_AP_20220509104047_30.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_15.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_15.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_16.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_16.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_16.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_16.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_17.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_17.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_17.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_17.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_18.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_18.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_19.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_AP_20220509104047_19.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_20.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_20.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_21.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_21.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_21.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_21.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_22.bval</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_22.bvec</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_22.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_22.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_23.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_23.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_24.json</t>
+  </si>
+  <si>
+    <t>pre_DWI_PA_20220509104047_24.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20220509104047_6.json</t>
+  </si>
+  <si>
+    <t>pre_SEField1_AP_20220509104047_6.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_SEField2_AP_20220509104047_28.json</t>
+  </si>
+  <si>
+    <t>pre_SEField2_AP_20220509104047_28.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_T1_MPR_20220509104047_12.json</t>
+  </si>
+  <si>
+    <t>pre_T1_MPR_20220509104047_12.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_T2_SPC_20220509104047_13.json</t>
+  </si>
+  <si>
+    <t>pre_T2_SPC_20220509104047_13.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_t1_fl3d_tra_melanin_20220509104047_14.json</t>
+  </si>
+  <si>
+    <t>pre_t1_fl3d_tra_melanin_20220509104047_14.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_1.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_1.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_2_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_2_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_2_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_2_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_2_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_2_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_2_i00004.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_2_i00004.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_3_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_3_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_3_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_3_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_3_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_3_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_4_i00001.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_4_i00001.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_4_i00002.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_4_i00002.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_4_i00003.json</t>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20220701092650_4_i00003.nii.gz</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20220701092650_5.json</t>
+  </si>
+  <si>
+    <t>post_AC-PC_setup_20220701092650_5.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220701092650_7.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220701092650_7.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220701092650_8.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST1_AP_20220701092650_8.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220701092650_26.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220701092650_26.nii.gz</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220701092650_27.json</t>
+  </si>
+  <si>
+    <t>post_BOLD_REST2_AP_20220701092650_27.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_15.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_15.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_16.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_16.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_16.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_16.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_17.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_17.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_17.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_17.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_18.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_18.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_19.json</t>
+  </si>
+  <si>
+    <t>post_DWI_AP_20220701092650_19.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_20.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_20.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_21.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_21.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_21.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_21.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_22.bval</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_22.bvec</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_22.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_22.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_23.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_23.nii.gz</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_24.json</t>
+  </si>
+  <si>
+    <t>post_DWI_PA_20220701092650_24.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20220701092650_6.json</t>
+  </si>
+  <si>
+    <t>post_SEField1_AP_20220701092650_6.nii.gz</t>
+  </si>
+  <si>
+    <t>post_SEField2_AP_20220701092650_25.json</t>
+  </si>
+  <si>
+    <t>post_SEField2_AP_20220701092650_25.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20220701092650_12.json</t>
+  </si>
+  <si>
+    <t>post_T1_MPR_20220701092650_12.nii.gz</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20220701092650_13.json</t>
+  </si>
+  <si>
+    <t>post_T2_SPC_20220701092650_13.nii.gz</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20220701092650_14.json</t>
+  </si>
+  <si>
+    <t>post_t1_fl3d_tra_melanin_20220701092650_14.nii.gz</t>
+  </si>
+  <si>
+    <t>pre_T2_SPC_20230428095322_13.nii.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pre_T1_MPR_20230428095322_26.nii.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pre_T2_SPC_20230428095322_25.nii.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NE0156_pre→T1/T2を2回ずつ撮像している</t>
+    <rPh sb="18" eb="19">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サツゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT0124_pre→BOLD REST1 AP撮りすぎ、FM1撮りすぎ</t>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT0124_post→Localizer撮りすぎ</t>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_AAHead_Scout_20221226104336_2_i00004.nii.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT0138_post→DWIのPAの最後のみ切れている（コード修正なしで問題なし）</t>
+    <rPh sb="19" eb="21">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ND011_post→BOLD3まで撮っている（コード修正なしで問題なし）</t>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ND0107_folow→T2を1枚多く撮っている</t>
+    <rPh sb="17" eb="18">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follow_T2_SPC_20221219103441_13.nii.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ND0120_post→REST1とFM1のPAが抜けている→REST2を採用</t>
+    <rPh sb="25" eb="26">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ND0106_pre→REST1、REST2ともにPAなし→使えない</t>
+    <rPh sb="30" eb="31">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ND0106_postREST1、REST2ともにPAなし→使えない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2421,7 +4647,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2431,6 +4657,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,9 +4685,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2736,8 +4976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5769,4 +8009,2384 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484A1A61-AE1D-44AE-B207-8B94B3370229}">
+  <dimension ref="A1:I95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C2" t="s">
+        <v>951</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C5" t="s">
+        <v>954</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B6" t="s">
+        <v>867</v>
+      </c>
+      <c r="C6" t="s">
+        <v>955</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B7" t="s">
+        <v>868</v>
+      </c>
+      <c r="C7" t="s">
+        <v>956</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>786</v>
+      </c>
+      <c r="B8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C8" t="s">
+        <v>957</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B9" t="s">
+        <v>870</v>
+      </c>
+      <c r="C9" t="s">
+        <v>958</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>788</v>
+      </c>
+      <c r="B10" t="s">
+        <v>871</v>
+      </c>
+      <c r="C10" t="s">
+        <v>959</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C11" t="s">
+        <v>960</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>790</v>
+      </c>
+      <c r="B12" t="s">
+        <v>873</v>
+      </c>
+      <c r="C12" t="s">
+        <v>961</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>791</v>
+      </c>
+      <c r="B13" t="s">
+        <v>874</v>
+      </c>
+      <c r="C13" t="s">
+        <v>962</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>792</v>
+      </c>
+      <c r="B14" t="s">
+        <v>875</v>
+      </c>
+      <c r="C14" t="s">
+        <v>963</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>793</v>
+      </c>
+      <c r="B15" t="s">
+        <v>876</v>
+      </c>
+      <c r="C15" t="s">
+        <v>964</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>794</v>
+      </c>
+      <c r="B16" t="s">
+        <v>877</v>
+      </c>
+      <c r="C16" t="s">
+        <v>965</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C17" t="s">
+        <v>966</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>796</v>
+      </c>
+      <c r="B18" t="s">
+        <v>879</v>
+      </c>
+      <c r="C18" t="s">
+        <v>967</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>797</v>
+      </c>
+      <c r="B19" t="s">
+        <v>880</v>
+      </c>
+      <c r="C19" t="s">
+        <v>968</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>798</v>
+      </c>
+      <c r="B20" t="s">
+        <v>881</v>
+      </c>
+      <c r="C20" t="s">
+        <v>969</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>799</v>
+      </c>
+      <c r="B21" t="s">
+        <v>882</v>
+      </c>
+      <c r="C21" t="s">
+        <v>970</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>800</v>
+      </c>
+      <c r="B22" t="s">
+        <v>883</v>
+      </c>
+      <c r="C22" t="s">
+        <v>971</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>801</v>
+      </c>
+      <c r="B23" t="s">
+        <v>884</v>
+      </c>
+      <c r="C23" t="s">
+        <v>972</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>802</v>
+      </c>
+      <c r="B24" t="s">
+        <v>885</v>
+      </c>
+      <c r="C24" t="s">
+        <v>973</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>803</v>
+      </c>
+      <c r="B25" t="s">
+        <v>886</v>
+      </c>
+      <c r="C25" t="s">
+        <v>974</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>804</v>
+      </c>
+      <c r="B26" t="s">
+        <v>887</v>
+      </c>
+      <c r="C26" t="s">
+        <v>975</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>805</v>
+      </c>
+      <c r="B27" t="s">
+        <v>888</v>
+      </c>
+      <c r="C27" t="s">
+        <v>976</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B28" t="s">
+        <v>889</v>
+      </c>
+      <c r="C28" t="s">
+        <v>977</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>807</v>
+      </c>
+      <c r="B29" t="s">
+        <v>890</v>
+      </c>
+      <c r="C29" t="s">
+        <v>978</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>808</v>
+      </c>
+      <c r="B30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C30" t="s">
+        <v>979</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B31" t="s">
+        <v>892</v>
+      </c>
+      <c r="C31" t="s">
+        <v>980</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>810</v>
+      </c>
+      <c r="B32" t="s">
+        <v>893</v>
+      </c>
+      <c r="C32" t="s">
+        <v>981</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>811</v>
+      </c>
+      <c r="B33" t="s">
+        <v>894</v>
+      </c>
+      <c r="C33" t="s">
+        <v>982</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>812</v>
+      </c>
+      <c r="B34" t="s">
+        <v>895</v>
+      </c>
+      <c r="C34" t="s">
+        <v>983</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>813</v>
+      </c>
+      <c r="B35" t="s">
+        <v>896</v>
+      </c>
+      <c r="C35" t="s">
+        <v>984</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>814</v>
+      </c>
+      <c r="B36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C36" t="s">
+        <v>985</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>815</v>
+      </c>
+      <c r="B37" t="s">
+        <v>898</v>
+      </c>
+      <c r="C37" t="s">
+        <v>986</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>816</v>
+      </c>
+      <c r="B38" t="s">
+        <v>899</v>
+      </c>
+      <c r="C38" t="s">
+        <v>987</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>817</v>
+      </c>
+      <c r="B39" t="s">
+        <v>900</v>
+      </c>
+      <c r="C39" t="s">
+        <v>988</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>818</v>
+      </c>
+      <c r="B40" t="s">
+        <v>901</v>
+      </c>
+      <c r="C40" t="s">
+        <v>989</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>819</v>
+      </c>
+      <c r="B41" t="s">
+        <v>902</v>
+      </c>
+      <c r="C41" t="s">
+        <v>990</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>820</v>
+      </c>
+      <c r="B42" t="s">
+        <v>903</v>
+      </c>
+      <c r="C42" t="s">
+        <v>991</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>821</v>
+      </c>
+      <c r="B43" t="s">
+        <v>904</v>
+      </c>
+      <c r="C43" t="s">
+        <v>992</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>822</v>
+      </c>
+      <c r="B44" t="s">
+        <v>905</v>
+      </c>
+      <c r="C44" t="s">
+        <v>993</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>823</v>
+      </c>
+      <c r="B45" t="s">
+        <v>906</v>
+      </c>
+      <c r="C45" t="s">
+        <v>994</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>824</v>
+      </c>
+      <c r="B46" t="s">
+        <v>907</v>
+      </c>
+      <c r="C46" t="s">
+        <v>995</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>825</v>
+      </c>
+      <c r="B47" t="s">
+        <v>908</v>
+      </c>
+      <c r="C47" t="s">
+        <v>996</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>826</v>
+      </c>
+      <c r="B48" t="s">
+        <v>909</v>
+      </c>
+      <c r="C48" t="s">
+        <v>997</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>827</v>
+      </c>
+      <c r="B49" t="s">
+        <v>910</v>
+      </c>
+      <c r="C49" t="s">
+        <v>998</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>828</v>
+      </c>
+      <c r="B50" t="s">
+        <v>911</v>
+      </c>
+      <c r="C50" t="s">
+        <v>999</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>829</v>
+      </c>
+      <c r="B51" t="s">
+        <v>912</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>830</v>
+      </c>
+      <c r="B52" t="s">
+        <v>913</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>831</v>
+      </c>
+      <c r="B53" t="s">
+        <v>914</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>832</v>
+      </c>
+      <c r="B54" t="s">
+        <v>915</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>833</v>
+      </c>
+      <c r="B55" t="s">
+        <v>916</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>834</v>
+      </c>
+      <c r="B56" t="s">
+        <v>917</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>835</v>
+      </c>
+      <c r="B57" t="s">
+        <v>918</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>836</v>
+      </c>
+      <c r="B58" t="s">
+        <v>919</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>837</v>
+      </c>
+      <c r="B59" t="s">
+        <v>920</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>838</v>
+      </c>
+      <c r="B60" t="s">
+        <v>921</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>839</v>
+      </c>
+      <c r="B61" t="s">
+        <v>922</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>840</v>
+      </c>
+      <c r="B62" t="s">
+        <v>923</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>841</v>
+      </c>
+      <c r="B63" t="s">
+        <v>924</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>842</v>
+      </c>
+      <c r="B64" t="s">
+        <v>925</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>843</v>
+      </c>
+      <c r="B65" t="s">
+        <v>926</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>844</v>
+      </c>
+      <c r="B66" t="s">
+        <v>927</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>845</v>
+      </c>
+      <c r="B67" t="s">
+        <v>928</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>846</v>
+      </c>
+      <c r="B68" t="s">
+        <v>929</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>847</v>
+      </c>
+      <c r="B69" t="s">
+        <v>930</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>848</v>
+      </c>
+      <c r="B70" t="s">
+        <v>931</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>849</v>
+      </c>
+      <c r="B71" t="s">
+        <v>932</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>850</v>
+      </c>
+      <c r="B72" t="s">
+        <v>933</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>851</v>
+      </c>
+      <c r="B73" t="s">
+        <v>934</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>852</v>
+      </c>
+      <c r="B74" t="s">
+        <v>935</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>853</v>
+      </c>
+      <c r="B75" t="s">
+        <v>936</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>854</v>
+      </c>
+      <c r="B76" t="s">
+        <v>937</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>855</v>
+      </c>
+      <c r="B77" t="s">
+        <v>938</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>856</v>
+      </c>
+      <c r="B78" t="s">
+        <v>939</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>857</v>
+      </c>
+      <c r="B79" t="s">
+        <v>940</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>858</v>
+      </c>
+      <c r="B80" t="s">
+        <v>941</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B81" t="s">
+        <v>942</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>859</v>
+      </c>
+      <c r="B82" t="s">
+        <v>943</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B83" t="s">
+        <v>944</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>860</v>
+      </c>
+      <c r="B84" t="s">
+        <v>945</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B85" t="s">
+        <v>946</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>861</v>
+      </c>
+      <c r="B86" t="s">
+        <v>947</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>862</v>
+      </c>
+      <c r="B87" t="s">
+        <v>948</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" t="s">
+        <v>949</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" t="s">
+        <v>950</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="E90" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="E91" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="E92" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="E93" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="E94" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="E95" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>